--- a/resualt/result cross domain count con matrix - saleh.xlsx
+++ b/resualt/result cross domain count con matrix - saleh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns\Desktop\CSI\github\Cross_Domain_Wi-Fi_Localization\resualt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4578163E-3279-41A5-9513-FBE2B721F85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA12870-9C5D-41C0-8569-6D0CE5BBBAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AF86158-703F-4AA8-947A-EB6F453190A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>ردیف</t>
   </si>
@@ -556,34 +556,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +906,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <f>AVERAGE(G2:G7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J2" s="26" t="e">
+      <c r="J2" s="28" t="e">
         <f>AVERAGE(H2:H7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1006,8 +1006,8 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
       <c r="K3" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -1057,8 +1057,8 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1081,8 +1081,8 @@
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <f t="shared" ref="I8:J8" si="0">AVERAGE(G8:G13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="26" t="e">
+      <c r="J8" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1154,8 +1154,8 @@
       <c r="F9" s="24"/>
       <c r="G9" s="17"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="29"/>
       <c r="K9">
         <v>0.5</v>
       </c>
@@ -1179,8 +1179,8 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -1201,8 +1201,8 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1221,8 +1221,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="17"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="29"/>
       <c r="K12">
         <v>0.5</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="17"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="30"/>
       <c r="K13">
         <v>0.5</v>
@@ -1264,19 +1264,18 @@
         <v>6</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="22"/>
       <c r="I14" s="25" t="e">
         <f t="shared" ref="I14:J14" si="1">AVERAGE(G14:G19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="26" t="e">
+      <c r="J14" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1296,14 +1295,11 @@
       <c r="F15" s="2"/>
       <c r="G15" s="17"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="29"/>
       <c r="L15">
         <f>SUM(K8:K21)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1325,10 +1321,10 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="26"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1347,10 +1343,10 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="26"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1364,16 +1360,15 @@
         <v>7</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="26"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1387,16 +1382,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="30"/>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1419,12 +1413,12 @@
         <f t="shared" ref="I20:J20" si="2">AVERAGE(G20:G25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="32" t="e">
+      <c r="J20" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1443,10 +1437,10 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="32"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1467,10 +1461,10 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="32"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1491,10 +1485,10 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="32"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1515,10 +1509,10 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="32"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1539,16 +1533,16 @@
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>16</v>
@@ -1569,7 +1563,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
